--- a/Test.xlsx
+++ b/Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>BaseUrl</t>
   </si>
@@ -32,207 +32,11 @@
   <si>
     <t>Response</t>
   </si>
-  <si>
-    <t>[{"in":"query","name":"start_latitude","format":"double","description":"Latitude component of start location.","type":"number","required":true},{"in":"query","name":"start_longitude","format":"double","description":"Longitude component of start location.","type":"number","required":true},{"in":"query","name":"end_latitude","format":"double","description":"Latitude component of end location.","type":"number","required":true},{"in":"query","name":"end_longitude","format":"double","description":"Longitude component of end location.","type":"number","required":true}]</t>
-  </si>
-  <si>
-    <t>[{"in":"query","name":"start_latitude","format":"double","description":"Latitude component of start location.","type":"number","required":true},{"in":"query","name":"start_longitude","format":"double","description":"Longitude component of start location.","type":"number","required":true},{"in":"query","name":"customer_uuid","format":"uuid","description":"Unique customer identifier to be used for experience customization.","type":"string"},{"in":"query","name":"product_id","description":"Unique identifier representing a specific product for a given latitude &amp; longitude.","type":"string"}]</t>
-  </si>
-  <si>
-    <t>[{"in":"query","name":"offset","format":"int32","description":"Offset the list of returned results by this amount. Default is zero.","type":"integer"},{"in":"query","name":"limit","format":"int32","description":"Number of items to retrieve. Default is 5, maximum is 100.","type":"integer"}]</t>
-  </si>
-  <si>
-    <t>[{"Description":"Parameter not available"}]</t>
-  </si>
-  <si>
-    <t>[{"in":"query","name":"latitude","format":"double","description":"Latitude component of location.","type":"number","required":true},{"in":"query","name":"longitude","format":"double","description":"Longitude component of location.","type":"number","required":true}]</t>
-  </si>
-  <si>
-    <t>http://api.uber.com/v1</t>
-  </si>
-  <si>
-    <t>/estimates/price</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>{"200":{"schema":{"type":"array","items":[{"high_estimate":{"description":"Upper bound of the estimated price.","type":"number"},"product_id":{"description":"Unique identifier representing a specific product for a given latitude &amp; longitude. For example, uberX in San Francisco will have a different product_id than uberX in Los Angeles","type":"string"},"low_estimate":{"description":"Lower bound of the estimated price.","type":"number"},"surge_multiplier":{"description":"Expected surge multiplier. Surge is active if surge_multiplier is greater than 1. Price estimate already factors in the surge multiplier.","type":"number"},"estimate":{"description":"Formatted string of estimate in local currency of the start location. Estimate could be a range, a single number (flat rate) or \"Metered\" for TAXI.","type":"string"},"display_name":{"description":"Display name of product.","type":"string"},"currency_code":{"description":"[ISO 4217](http://en.wikipedia.org/wiki/ISO_4217) currency code.","type":"string"}}]},"description":"An array of price estimates by product"},"default":{"schema":{"code":{"format":"int32","type":"integer"},"message":{"type":"string"},"fields":{"type":"string"}},"description":"Unexpected error"}}</t>
-  </si>
-  <si>
-    <t>/estimates/time</t>
-  </si>
-  <si>
-    <t>{"200":{"schema":{"type":"array","items":[{"image":{"description":"Image URL representing the product.","type":"string"},"product_id":{"description":"Unique identifier representing a specific product for a given latitude &amp; longitude. For example, uberX in San Francisco will have a different product_id than uberX in Los Angeles.","type":"string"},"description":{"description":"Description of product.","type":"string"},"display_name":{"description":"Display name of product.","type":"string"},"capacity":{"description":"Capacity of product. For example, 4 people.","type":"string"}}]},"description":"An array of products"},"default":{"schema":{"code":{"format":"int32","type":"integer"},"message":{"type":"string"},"fields":{"type":"string"}},"description":"Unexpected error"}}</t>
-  </si>
-  <si>
-    <t>/history</t>
-  </si>
-  <si>
-    <t>{"200":{"schema":{"offset":{"format":"int32","description":"Position in pagination.","type":"integer"},"limit":{"format":"int32","description":"Number of items to retrieve (100 max).","type":"integer"},"count":{"format":"int32","description":"Total number of items available.","type":"integer"},"history":[{"uuid":{"description":"Unique identifier for the activity","type":"string"}}]},"description":"History information for the given user"},"default":{"schema":{"code":{"format":"int32","type":"integer"},"message":{"type":"string"},"fields":{"type":"string"}},"description":"Unexpected error"}}</t>
-  </si>
-  <si>
-    <t>/me</t>
-  </si>
-  <si>
-    <t>{"200":{"schema":{"last_name":{"description":"Last name of the Uber user.","type":"string"},"promo_code":{"description":"Promo code of the Uber user.","type":"string"},"first_name":{"description":"First name of the Uber user.","type":"string"},"email":{"description":"Email address of the Uber user","type":"string"},"picture":{"description":"Image URL of the Uber user.","type":"string"}},"description":"Profile information for a user"},"default":{"schema":{"code":{"format":"int32","type":"integer"},"message":{"type":"string"},"fields":{"type":"string"}},"description":"Unexpected error"}}</t>
-  </si>
-  <si>
-    <t>/products</t>
-  </si>
-  <si>
-    <t>[{"in":"path","name":"id","format":"int64","description":"ID of category to delete","type":"integer","required":true}]</t>
-  </si>
-  <si>
-    <t>[{"in":"path","name":"id","format":"int64","description":"ID of category to fetch","type":"integer","required":true}]</t>
-  </si>
-  <si>
-    <t>[{"in":"path","name":"id","format":"int64","description":"ID of category to update","type":"integer","required":true},{"schema":{"name":{"minLength":1,"type":"string","maxLength":100},"id":{"minLength":1,"type":"string","maxLength":100}},"in":"body","name":"category","description":"Category attributes to update","required":true}]</t>
-  </si>
-  <si>
-    <t>[{"in":"query","name":"$limit","description":"Limit the number of categories returned.","type":"integer","required":false},{"in":"query","name":"$skip","description":"Skip the specified number of categories.","type":"integer","required":false}]</t>
-  </si>
-  <si>
-    <t>[{"schema":{"name":{"minLength":1,"type":"string","maxLength":100},"id":{"minLength":1,"type":"string","maxLength":100}},"in":"body","name":"category","description":"Category to add","required":true}]</t>
-  </si>
-  <si>
-    <t>[{"in":"path","name":"id","format":"int64","description":"ID of product to delete","type":"integer","required":true}]</t>
-  </si>
-  <si>
-    <t>[{"in":"path","name":"id","format":"int64","description":"ID of product to fetch","type":"integer","required":true}]</t>
-  </si>
-  <si>
-    <t>[{"in":"path","name":"id","format":"int64","description":"ID of product to fetch","type":"integer","required":true},{"schema":{"image":{"minLength":1,"type":"string","maxLength":500},"shipping":{"multipleOf":0.01,"type":"number"},"price":{"multipleOf":0.01,"name":"Price","description":"The Price Of the Product","type":"number"},"name":{"minLength":1,"type":"string","maxLength":100},"upc":{"minLength":1,"type":"string","maxLength":15},"description":{"minLength":1,"type":"string","maxLength":100},"model":{"minLength":1,"type":"string","maxLength":25},"type":{"minLength":1,"type":"string","maxLength":30},"url":{"minLength":1,"type":"string","maxLength":500},"manufacturer":{"minLength":1,"type":"string","maxLength":50}},"in":"body","name":"product","description":"Product attributes to update","required":true}]</t>
-  </si>
-  <si>
-    <t>[{"in":"query","name":"$limit","description":"Limit the number of products returned.","type":"integer","required":false},{"in":"query","name":"$skip","description":"Skip the specified number of products.","type":"integer","required":false}]</t>
-  </si>
-  <si>
-    <t>[{"schema":{"image":{"minLength":1,"type":"string","maxLength":500},"shipping":{"multipleOf":0.01,"type":"number"},"price":{"multipleOf":0.01,"name":"Price","description":"The Price Of the Product","type":"number"},"name":{"minLength":1,"type":"string","maxLength":100},"upc":{"minLength":1,"type":"string","maxLength":15},"description":{"minLength":1,"type":"string","maxLength":100},"model":{"minLength":1,"type":"string","maxLength":25},"type":{"minLength":1,"type":"string","maxLength":30},"url":{"minLength":1,"type":"string","maxLength":500},"manufacturer":{"minLength":1,"type":"string","maxLength":50}},"in":"body","name":"product","description":"Product to add","required":true}]</t>
-  </si>
-  <si>
-    <t>[{"in":"path","name":"id","format":"int64","description":"ID of service to delete","type":"integer","required":true}]</t>
-  </si>
-  <si>
-    <t>[{"in":"path","name":"id","format":"int64","description":"ID of service to fetch","type":"integer","required":true}]</t>
-  </si>
-  <si>
-    <t>[{"in":"path","name":"id","format":"int64","description":"ID of service to fetch","type":"integer","required":true},{"schema":{"name":{"minLength":1,"type":"string","maxLength":100}},"in":"body","name":"service","description":"Service attributes to update","required":true}]</t>
-  </si>
-  <si>
-    <t>[{"in":"query","name":"$limit","description":"Limit the number of services returned.","type":"integer","required":false},{"in":"query","name":"$skip","description":"Skip the specified number of services.","type":"integer","required":false}]</t>
-  </si>
-  <si>
-    <t>[{"schema":{"name":{"minLength":1,"type":"string","maxLength":100}},"in":"body","name":"service","description":"Service to add","required":true}]</t>
-  </si>
-  <si>
-    <t>[{"in":"path","name":"id","format":"int64","description":"ID of store to delete","type":"integer","required":true}]</t>
-  </si>
-  <si>
-    <t>[{"in":"path","name":"id","format":"int64","description":"ID of store to fetch","type":"integer","required":true}]</t>
-  </si>
-  <si>
-    <t>[{"in":"path","name":"id","format":"int64","description":"ID of store to update","type":"integer","required":true},{"schema":{"zip":{"minLength":1,"type":"string","maxLength":30},"hours":{"minLength":1,"type":"string","maxLength":100},"address":{"minLength":1,"type":"string","maxLength":50},"lng":{"type":"number"},"address2":{"type":"string","maxLength":30},"city":{"minLength":1,"type":"string","maxLength":50},"name":{"minLength":1,"type":"string","maxLength":100},"state":{"minLength":1,"type":"string","maxLength":30},"services":{"type":"object"},"type":{"minLength":1,"type":"string","maxLength":30},"lat":{"type":"number"}},"in":"body","name":"store","description":"Store attributes to update","required":true}]</t>
-  </si>
-  <si>
-    <t>[{"in":"query","name":"$limit","description":"Limit the number of stores returned.","type":"integer","required":false},{"in":"query","name":"$skip","description":"Skip the specified number of stores.","type":"integer","required":false}]</t>
-  </si>
-  <si>
-    <t>[{"schema":{"zip":{"minLength":1,"type":"string","maxLength":30},"hours":{"minLength":1,"type":"string","maxLength":100},"address":{"minLength":1,"type":"string","maxLength":50},"lng":{"type":"number"},"address2":{"type":"string","maxLength":30},"city":{"minLength":1,"type":"string","maxLength":50},"name":{"minLength":1,"type":"string","maxLength":100},"state":{"minLength":1,"type":"string","maxLength":30},"services":{"type":"object"},"type":{"minLength":1,"type":"string","maxLength":30},"lat":{"type":"number"}},"in":"body","name":"store","description":"Store to add","required":true}]</t>
-  </si>
-  <si>
-    <t>http://localhost:3030/</t>
-  </si>
-  <si>
-    <t>/categories/{id}</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>{"200":{"description":"Category deleted"},"400":{"schema":{"code":{"type":"integer"},"name":{"type":"string"},"className":{"type":"string"},"message":{"type":"string"},"errors":{"type":"object"}},"description":"Unexpected error"}}</t>
-  </si>
-  <si>
-    <t>{"200":{"schema":{"name":{"minLength":1,"type":"string","maxLength":100},"id":{"minLength":1,"type":"string","maxLength":100}},"description":"Category response"},"400":{"schema":{"code":{"type":"integer"},"name":{"type":"string"},"className":{"type":"string"},"message":{"type":"string"},"errors":{"type":"object"}},"description":"Error"}}</t>
-  </si>
-  <si>
-    <t>PATCH</t>
-  </si>
-  <si>
-    <t>/categories</t>
-  </si>
-  <si>
-    <t>{"200":{"schema":{"type":"array","items":[{"name":{"minLength":1,"type":"string","maxLength":100},"id":{"minLength":1,"type":"string","maxLength":100}}]},"description":"Category response"},"400":{"schema":{"code":{"type":"integer"},"name":{"type":"string"},"className":{"type":"string"},"message":{"type":"string"},"errors":{"type":"object"}},"description":"Error"}}</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>{"200":{"description":"Empty response"},"400":{"schema":{"code":{"type":"integer"},"name":{"type":"string"},"className":{"type":"string"},"message":{"type":"string"},"errors":{"type":"object"}},"description":"Unexpected error"}}</t>
-  </si>
-  <si>
-    <t>/healthcheck</t>
-  </si>
-  <si>
-    <t>{"200":{"description":"Healthcheck response"},"500":{"description":"Error"}}</t>
-  </si>
-  <si>
-    <t>/products/{id}</t>
-  </si>
-  <si>
-    <t>{"200":{"description":"Product deleted"},"400":{"schema":{"code":{"type":"integer"},"name":{"type":"string"},"className":{"type":"string"},"message":{"type":"string"},"errors":{"type":"object"}},"description":"Unexpected error"}}</t>
-  </si>
-  <si>
-    <t>{"200":{"schema":{"image":{"minLength":1,"type":"string","maxLength":500},"shipping":{"multipleOf":0.01,"type":"number"},"price":{"multipleOf":0.01,"name":"Price","description":"The Price Of the Product","type":"number"},"name":{"minLength":1,"type":"string","maxLength":100},"upc":{"minLength":1,"type":"string","maxLength":15},"description":{"minLength":1,"type":"string","maxLength":100},"model":{"minLength":1,"type":"string","maxLength":25},"type":{"minLength":1,"type":"string","maxLength":30},"url":{"minLength":1,"type":"string","maxLength":500},"manufacturer":{"minLength":1,"type":"string","maxLength":50}},"description":"Product response"},"400":{"schema":{"code":{"type":"integer"},"name":{"type":"string"},"className":{"type":"string"},"message":{"type":"string"},"errors":{"type":"object"}},"description":"Error"}}</t>
-  </si>
-  <si>
-    <t>{"200":{"schema":{"type":"array","items":[{"image":{"minLength":1,"type":"string","maxLength":500},"shipping":{"multipleOf":0.01,"type":"number"},"price":{"multipleOf":0.01,"name":"Price","description":"The Price Of the Product","type":"number"},"name":{"minLength":1,"type":"string","maxLength":100},"upc":{"minLength":1,"type":"string","maxLength":15},"description":{"minLength":1,"type":"string","maxLength":100},"model":{"minLength":1,"type":"string","maxLength":25},"type":{"minLength":1,"type":"string","maxLength":30},"url":{"minLength":1,"type":"string","maxLength":500},"manufacturer":{"minLength":1,"type":"string","maxLength":50}}]},"description":"Product response"},"400":{"schema":{"code":{"type":"integer"},"name":{"type":"string"},"className":{"type":"string"},"message":{"type":"string"},"errors":{"type":"object"}},"description":"Error"}}</t>
-  </si>
-  <si>
-    <t>/services/{id}</t>
-  </si>
-  <si>
-    <t>{"200":{"description":"Service deleted"},"400":{"schema":{"code":{"type":"integer"},"name":{"type":"string"},"className":{"type":"string"},"message":{"type":"string"},"errors":{"type":"object"}},"description":"Unexpected error"}}</t>
-  </si>
-  <si>
-    <t>{"200":{"schema":{"name":{"minLength":1,"type":"string","maxLength":100}},"description":"Service response"},"400":{"schema":{"code":{"type":"integer"},"name":{"type":"string"},"className":{"type":"string"},"message":{"type":"string"},"errors":{"type":"object"}},"description":"Error"}}</t>
-  </si>
-  <si>
-    <t>/services</t>
-  </si>
-  <si>
-    <t>{"200":{"schema":{"type":"array","items":[{"name":{"minLength":1,"type":"string","maxLength":100}}]},"description":"Service response"},"400":{"schema":{"code":{"type":"integer"},"name":{"type":"string"},"className":{"type":"string"},"message":{"type":"string"},"errors":{"type":"object"}},"description":"Error"}}</t>
-  </si>
-  <si>
-    <t>{"200":{"description":"Empty response"},"400":{"schema":{"code":{"type":"integer"},"name":{"type":"string"},"className":{"type":"string"},"message":{"type":"string"},"errors":{"type":"object"}},"description":"unexpected error"}}</t>
-  </si>
-  <si>
-    <t>/stores/{id}</t>
-  </si>
-  <si>
-    <t>{"200":{"description":"Store deleted"},"400":{"schema":{"code":{"type":"integer"},"name":{"type":"string"},"className":{"type":"string"},"message":{"type":"string"},"errors":{"type":"object"}},"description":"unexpected error"}}</t>
-  </si>
-  <si>
-    <t>{"200":{"schema":{"zip":{"minLength":1,"type":"string","maxLength":30},"hours":{"minLength":1,"type":"string","maxLength":100},"address":{"minLength":1,"type":"string","maxLength":50},"lng":{"type":"number"},"address2":{"type":"string","maxLength":30},"city":{"minLength":1,"type":"string","maxLength":50},"name":{"minLength":1,"type":"string","maxLength":100},"state":{"minLength":1,"type":"string","maxLength":30},"services":{"type":"object"},"type":{"minLength":1,"type":"string","maxLength":30},"lat":{"type":"number"}},"description":"Store response"},"400":{"schema":{"code":{"type":"integer"},"name":{"type":"string"},"className":{"type":"string"},"message":{"type":"string"},"errors":{"type":"object"}},"description":"Error"}}</t>
-  </si>
-  <si>
-    <t>/stores</t>
-  </si>
-  <si>
-    <t>{"200":{"schema":{"type":"array","items":[{"zip":{"minLength":1,"type":"string","maxLength":30},"hours":{"minLength":1,"type":"string","maxLength":100},"address":{"minLength":1,"type":"string","maxLength":50},"lng":{"type":"number"},"address2":{"type":"string","maxLength":30},"city":{"minLength":1,"type":"string","maxLength":50},"name":{"minLength":1,"type":"string","maxLength":100},"state":{"minLength":1,"type":"string","maxLength":30},"services":{"type":"object"},"type":{"minLength":1,"type":"string","maxLength":30},"lat":{"type":"number"}}]},"description":"Store response"},"400":{"schema":{"code":{"type":"integer"},"name":{"type":"string"},"className":{"type":"string"},"message":{"type":"string"},"errors":{"type":"object"}},"description":"Error"}}</t>
-  </si>
-  <si>
-    <t>/version</t>
-  </si>
-  <si>
-    <t>{"200":{"description":"Version response"}}</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -593,24 +397,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD79"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="20.91015625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="15.01953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="8.2421875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="255.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="255.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="26.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="14.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="21.42578125" collapsed="true"/>
-    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="50.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="50.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
@@ -635,462 +438,242 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1777,6 +1360,390 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="D114"/>
+      <c r="E114"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="D115"/>
+      <c r="E115"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="D116"/>
+      <c r="E116"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="D117"/>
+      <c r="E117"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="D118"/>
+      <c r="E118"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="D119"/>
+      <c r="E119"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="D120"/>
+      <c r="E120"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="D121"/>
+      <c r="E121"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="D122"/>
+      <c r="E122"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="D123"/>
+      <c r="E123"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="D124"/>
+      <c r="E124"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="D125"/>
+      <c r="E125"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="D126"/>
+      <c r="E126"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="D127"/>
+      <c r="E127"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="D128"/>
+      <c r="E128"/>
+    </row>
+    <row r="129" spans="4:5">
+      <c r="D129"/>
+      <c r="E129"/>
+    </row>
+    <row r="130" spans="4:5">
+      <c r="D130"/>
+      <c r="E130"/>
+    </row>
+    <row r="131" spans="4:5">
+      <c r="D131"/>
+      <c r="E131"/>
+    </row>
+    <row r="132" spans="4:5">
+      <c r="D132"/>
+      <c r="E132"/>
+    </row>
+    <row r="133" spans="4:5">
+      <c r="D133"/>
+      <c r="E133"/>
+    </row>
+    <row r="134" spans="4:5">
+      <c r="D134"/>
+      <c r="E134"/>
+    </row>
+    <row r="135" spans="4:5">
+      <c r="D135"/>
+      <c r="E135"/>
+    </row>
+    <row r="136" spans="4:5">
+      <c r="D136"/>
+      <c r="E136"/>
+    </row>
+    <row r="137" spans="4:5">
+      <c r="D137"/>
+      <c r="E137"/>
+    </row>
+    <row r="138" spans="4:5">
+      <c r="D138"/>
+      <c r="E138"/>
+    </row>
+    <row r="139" spans="4:5">
+      <c r="D139"/>
+      <c r="E139"/>
+    </row>
+    <row r="140" spans="4:5">
+      <c r="D140"/>
+      <c r="E140"/>
+    </row>
+    <row r="141" spans="4:5">
+      <c r="D141"/>
+      <c r="E141"/>
+    </row>
+    <row r="142" spans="4:5">
+      <c r="D142"/>
+      <c r="E142"/>
+    </row>
+    <row r="143" spans="4:5">
+      <c r="D143"/>
+      <c r="E143"/>
+    </row>
+    <row r="144" spans="4:5">
+      <c r="D144"/>
+      <c r="E144"/>
+    </row>
+    <row r="145" spans="4:5">
+      <c r="D145"/>
+      <c r="E145"/>
+    </row>
+    <row r="146" spans="4:5">
+      <c r="D146"/>
+      <c r="E146"/>
+    </row>
+    <row r="147" spans="4:5">
+      <c r="D147"/>
+      <c r="E147"/>
+    </row>
+    <row r="148" spans="4:5">
+      <c r="D148"/>
+      <c r="E148"/>
+    </row>
+    <row r="149" spans="4:5">
+      <c r="D149"/>
+      <c r="E149"/>
+    </row>
+    <row r="150" spans="4:5">
+      <c r="D150"/>
+      <c r="E150"/>
+    </row>
+    <row r="151" spans="4:5">
+      <c r="D151"/>
+      <c r="E151"/>
+    </row>
+    <row r="152" spans="4:5">
+      <c r="D152"/>
+      <c r="E152"/>
+    </row>
+    <row r="153" spans="4:5">
+      <c r="D153"/>
+      <c r="E153"/>
+    </row>
+    <row r="154" spans="4:5">
+      <c r="D154"/>
+      <c r="E154"/>
+    </row>
+    <row r="155" spans="4:5">
+      <c r="D155"/>
+      <c r="E155"/>
+    </row>
+    <row r="156" spans="4:5">
+      <c r="D156"/>
+      <c r="E156"/>
+    </row>
+    <row r="157" spans="4:5">
+      <c r="D157"/>
+      <c r="E157"/>
+    </row>
+    <row r="158" spans="4:5">
+      <c r="D158"/>
+      <c r="E158"/>
+    </row>
+    <row r="159" spans="4:5">
+      <c r="D159"/>
+      <c r="E159"/>
+    </row>
+    <row r="160" spans="4:5">
+      <c r="D160"/>
+      <c r="E160"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
